--- a/data/ВІДОМІСТЬ ДОРУЧЕНЬ ТМБ денне весна - 2020.xlsx
+++ b/data/ВІДОМІСТЬ ДОРУЧЕНЬ ТМБ денне весна - 2020.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF9BC0E-3053-4817-B5AE-6DCBBA8EE4A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14100" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$I$54</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="78">
   <si>
     <t>МІНІСТЕРСТВО ОСВІТИ І НАУКИ УКРАЇНИ</t>
   </si>
@@ -306,9 +300,6 @@
     <t>Козлова Олена Борисівна</t>
   </si>
   <si>
-    <t>Козлова Олена Борисівна; Гермашев Антон Ігоревич</t>
-  </si>
-  <si>
     <r>
       <t>КАФЕДРА__</t>
     </r>
@@ -358,12 +349,30 @@
   <si>
     <t>Кучугуров Марк Валерійович; Степанов Дмитро Миколайович</t>
   </si>
+  <si>
+    <t>Степанов Дмитро Миколайович;Кучугуров Марк Валерійович</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Козлова Олена Борисівна; Гермашев Антон </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Ігоревич</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,6 +490,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -591,7 +607,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -861,37 +877,37 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B39" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
     <col min="5" max="6" width="17" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="22.81640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I1" s="14" t="s">
         <v>9</v>
       </c>
@@ -900,7 +916,7 @@
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
     </row>
-    <row r="2" spans="1:13" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -914,7 +930,7 @@
       <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
@@ -938,7 +954,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:13" ht="25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>5</v>
       </c>
@@ -951,7 +967,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:13" ht="8.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="8.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -962,7 +978,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>18</v>
       </c>
@@ -986,9 +1002,9 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -999,7 +1015,7 @@
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="21" t="s">
         <v>19</v>
@@ -1023,7 +1039,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
@@ -1052,7 +1068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="14.1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>1</v>
       </c>
@@ -1081,7 +1097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>1</v>
       </c>
@@ -1104,13 +1120,13 @@
         <v>21</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I15" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="44" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>2</v>
       </c>
@@ -1118,7 +1134,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>34</v>
@@ -1133,13 +1149,13 @@
         <v>21</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I16" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="44" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>3</v>
       </c>
@@ -1147,7 +1163,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>34</v>
@@ -1162,13 +1178,13 @@
         <v>21</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I17" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>4</v>
       </c>
@@ -1197,7 +1213,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>5</v>
       </c>
@@ -1205,7 +1221,7 @@
         <v>25</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>34</v>
@@ -1226,7 +1242,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>6</v>
       </c>
@@ -1234,7 +1250,7 @@
         <v>25</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>34</v>
@@ -1255,7 +1271,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>7</v>
       </c>
@@ -1263,7 +1279,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>35</v>
@@ -1284,7 +1300,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>8</v>
       </c>
@@ -1292,7 +1308,7 @@
         <v>25</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>35</v>
@@ -1313,7 +1329,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>9</v>
       </c>
@@ -1342,7 +1358,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>10</v>
       </c>
@@ -1350,7 +1366,7 @@
         <v>38</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>34</v>
@@ -1371,7 +1387,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>11</v>
       </c>
@@ -1379,7 +1395,7 @@
         <v>38</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>34</v>
@@ -1400,7 +1416,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>12</v>
       </c>
@@ -1429,7 +1445,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>13</v>
       </c>
@@ -1458,12 +1474,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>14</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>42</v>
@@ -1487,12 +1503,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>15</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>42</v>
@@ -1510,13 +1526,13 @@
         <v>21</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I29" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>16</v>
       </c>
@@ -1545,7 +1561,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>17</v>
       </c>
@@ -1568,13 +1584,13 @@
         <v>29</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I31" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>18</v>
       </c>
@@ -1603,7 +1619,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>19</v>
       </c>
@@ -1632,12 +1648,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>20</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>55</v>
@@ -1661,12 +1677,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>21</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>55</v>
@@ -1690,7 +1706,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>22</v>
       </c>
@@ -1719,7 +1735,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>23</v>
       </c>
@@ -1748,7 +1764,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>24</v>
       </c>
@@ -1777,7 +1793,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>25</v>
       </c>
@@ -1806,7 +1822,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>26</v>
       </c>
@@ -1835,7 +1851,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>27</v>
       </c>
@@ -1864,7 +1880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>28</v>
       </c>
@@ -1893,7 +1909,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>29</v>
       </c>
@@ -1922,7 +1938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>30</v>
       </c>
@@ -1951,7 +1967,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>31</v>
       </c>
@@ -1980,7 +1996,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>32</v>
       </c>
@@ -2003,13 +2019,13 @@
         <v>29</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="I46" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -2020,7 +2036,7 @@
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
     </row>
-    <row r="50" spans="1:9" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>3</v>
       </c>
@@ -2029,13 +2045,13 @@
       </c>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H51" s="24" t="s">
         <v>8</v>
       </c>
       <c r="I51" s="24"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>16</v>
       </c>
@@ -2048,7 +2064,7 @@
       <c r="H53" s="16"/>
       <c r="I53" s="16"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>14</v>
       </c>
@@ -2076,6 +2092,6 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="34" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="32" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>